--- a/Employee_Reports35/Mohamed Faris Mohamed Naleem Q0519.xlsx
+++ b/Employee_Reports35/Mohamed Faris Mohamed Naleem Q0519.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -707,11 +707,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">

--- a/Employee_Reports35/Mohamed Faris Mohamed Naleem Q0519.xlsx
+++ b/Employee_Reports35/Mohamed Faris Mohamed Naleem Q0519.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -707,11 +707,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
